--- a/Тест-кейс Steam11.xlsx
+++ b/Тест-кейс Steam11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\Desktop\projects Skillfactory\KirTsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E58254-6DD6-4415-A199-A7273B1B97F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA31CA89-E396-4139-B558-6713AB7ABBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Тест Кейс №/ID</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Загрузилась страница с необходимыми результатами.</t>
+  </si>
+  <si>
+    <t>fgfgfgf</t>
   </si>
 </sst>
 </file>
@@ -9678,7 +9681,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9705,7 +9708,9 @@
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">

--- a/Тест-кейс Steam11.xlsx
+++ b/Тест-кейс Steam11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiril\Desktop\projects Skillfactory\KirTsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA31CA89-E396-4139-B558-6713AB7ABBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BE29B9-0816-483E-A210-706461185C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9678,10 +9678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9779E02C-2357-470A-879B-BD98E72CF4F1}">
-  <dimension ref="A1:C999"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9692,7 +9692,7 @@
     <col min="4" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -9711,8 +9711,11 @@
       <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -9732,7 +9735,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -9741,26 +9744,26 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -9769,7 +9772,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -9778,7 +9781,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -9787,12 +9790,12 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -9803,7 +9806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>3</v>
       </c>
